--- a/output_additional_column/1944.xlsx
+++ b/output_additional_column/1944.xlsx
@@ -490,7 +490,7 @@
         <v>55614</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76710663855</v>
+        <v>44703.79032594398</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>65275</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76710663855</v>
+        <v>44703.79032594398</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>80184</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76710663855</v>
+        <v>44703.79032594398</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>45006</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76710663855</v>
+        <v>44703.79032594398</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>82716</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76710663855</v>
+        <v>44703.79032594398</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>55956</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76710663855</v>
+        <v>44703.79032594398</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>80589</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76710663855</v>
+        <v>44703.79032594398</v>
       </c>
     </row>
   </sheetData>
